--- a/notebooks/sub_new_nodes905.xlsx
+++ b/notebooks/sub_new_nodes905.xlsx
@@ -575,12 +575,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Metro D: Rotterdam Centraal =&gt; De Akkers</t>
+          <t>Metro D: Rotterdam Centraal =&gt; De Akkers, Metro E: Den Haag Centraal =&gt; Slinge</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, E</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -590,10 +590,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>D, E</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>('D', 'E')</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -725,12 +729,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Metro C: De Akkers =&gt; De Terp</t>
+          <t>Metro C: De Akkers =&gt; De Terp, Metro D: De Akkers =&gt; Rotterdam Centraal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C, D</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -740,10 +744,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>C, D</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>('C', 'D')</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -775,12 +783,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Metro C: De Terp =&gt; De Akkers</t>
+          <t>Metro C: De Terp =&gt; De Akkers, Metro D: Rotterdam Centraal =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C, D</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -790,10 +798,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>C, D</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>('C', 'D')</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -925,12 +937,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Metro E: Den Haag Centraal =&gt; Slinge</t>
+          <t>Metro E: Den Haag Centraal =&gt; Slinge, Metro E: Slinge =&gt; Den Haag Centraal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E, E</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -940,12 +952,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>E, D</t>
+          <t>E, E, D</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>('E', 'D')</t>
+          <t>('E', 'E', 'D')</t>
         </is>
       </c>
     </row>
@@ -994,12 +1006,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>E, D</t>
+          <t>E, E, D</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>('E', 'D')</t>
+          <t>('E', 'E', 'D')</t>
         </is>
       </c>
     </row>
@@ -1033,12 +1045,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Metro D: De Akkers =&gt; Rotterdam Centraal</t>
+          <t>Metro D: De Akkers =&gt; Rotterdam Centraal, Metro D: Rotterdam Centraal =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, D</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1048,12 +1060,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>D, E</t>
+          <t>D, D, E</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>('D', 'D', 'E')</t>
         </is>
       </c>
     </row>
@@ -1137,12 +1149,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande, Metro C: De Akkers =&gt; De Terp</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1152,10 +1164,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1237,12 +1253,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand, Metro C: De Terp =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1252,10 +1268,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1437,12 +1457,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1452,12 +1472,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>A, C</t>
+          <t>A, B, A, B, C, C</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>('A', 'C')</t>
+          <t>('A', 'B', 'A', 'B', 'C', 'C')</t>
         </is>
       </c>
     </row>
@@ -1491,12 +1511,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand, Metro C: De Terp =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1506,12 +1526,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>A, C</t>
+          <t>A, B, A, B, C, C</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>('A', 'C')</t>
+          <t>('A', 'B', 'A', 'B', 'C', 'C')</t>
         </is>
       </c>
     </row>
@@ -1645,12 +1665,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1660,10 +1680,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1695,12 +1719,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1710,10 +1734,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1810,12 +1838,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>E, D</t>
+          <t>E, E, D</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>('E', 'D')</t>
+          <t>('E', 'E', 'D')</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1877,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro A: Vlaardingen West =&gt; Binnenhof</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, A</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1864,12 +1892,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A, A, B</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>('A', 'A', 'B')</t>
         </is>
       </c>
     </row>
@@ -2053,12 +2081,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Metro C: De Akkers =&gt; De Terp</t>
+          <t>Metro C: De Akkers =&gt; De Terp, Metro D: De Akkers =&gt; Rotterdam Centraal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C, D</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2068,10 +2096,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
+          <t>C, D</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>('C', 'D')</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2103,12 +2135,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Metro D: Rotterdam Centraal =&gt; De Akkers</t>
+          <t>Metro D: Rotterdam Centraal =&gt; De Akkers, Metro E: Den Haag Centraal =&gt; Slinge</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, E</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2118,10 +2150,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
+          <t>D, E</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>('D', 'E')</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2153,12 +2189,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Metro D: Rotterdam Centraal =&gt; De Akkers</t>
+          <t>Metro D: Rotterdam Centraal =&gt; De Akkers, Metro E: Den Haag Centraal =&gt; Slinge</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, E</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2168,10 +2204,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
+          <t>D, E</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>('D', 'E')</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2203,12 +2243,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2218,10 +2258,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2303,12 +2347,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2318,10 +2362,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2453,12 +2501,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande, Metro C: De Akkers =&gt; De Terp</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2468,10 +2516,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2503,12 +2555,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande, Metro C: De Akkers =&gt; De Terp</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2518,10 +2570,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2553,12 +2609,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Metro C: De Akkers =&gt; De Terp</t>
+          <t>Metro C: De Akkers =&gt; De Terp, Metro D: De Akkers =&gt; Rotterdam Centraal</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C, D</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2568,10 +2624,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+          <t>C, D</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>('C', 'D')</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2603,12 +2663,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Metro C: De Akkers =&gt; De Terp</t>
+          <t>Metro C: De Akkers =&gt; De Terp, Metro D: De Akkers =&gt; Rotterdam Centraal</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C, D</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2618,10 +2678,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+          <t>C, D</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>('C', 'D')</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2707,12 +2771,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2722,10 +2786,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2757,12 +2825,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2772,10 +2840,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2961,12 +3033,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande, Metro C: De Akkers =&gt; De Terp</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2976,10 +3048,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3011,12 +3087,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande, Metro C: De Akkers =&gt; De Terp</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3026,10 +3102,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3061,12 +3141,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande, Metro C: De Akkers =&gt; De Terp</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3076,10 +3156,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3161,12 +3245,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Metro D: De Akkers =&gt; Rotterdam Centraal</t>
+          <t>Metro D: De Akkers =&gt; Rotterdam Centraal, Metro E: Slinge =&gt; Den Haag Centraal</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, E</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3176,10 +3260,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
+          <t>D, E</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>('D', 'E')</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4176,12 +4264,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>D, E</t>
+          <t>D, D, E</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>('D', 'D', 'E')</t>
         </is>
       </c>
     </row>
@@ -4230,12 +4318,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>D, E</t>
+          <t>D, D, E</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>('D', 'D', 'E')</t>
         </is>
       </c>
     </row>
@@ -4269,12 +4357,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand, Metro C: De Terp =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4284,10 +4372,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4319,12 +4411,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande, Metro C: De Akkers =&gt; De Terp</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4334,10 +4426,14 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4369,12 +4465,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand, Metro C: De Terp =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4384,10 +4480,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4419,12 +4519,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Metro D: De Akkers =&gt; Rotterdam Centraal</t>
+          <t>Metro D: De Akkers =&gt; Rotterdam Centraal, Metro E: Slinge =&gt; Den Haag Centraal</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, E</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4434,10 +4534,14 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
+          <t>D, E</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>('D', 'E')</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4469,12 +4573,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Metro D: Rotterdam Centraal =&gt; De Akkers</t>
+          <t>Metro D: Rotterdam Centraal =&gt; De Akkers, Metro E: Den Haag Centraal =&gt; Slinge</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, E</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4484,10 +4588,14 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
+          <t>D, E</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>('D', 'E')</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4519,12 +4627,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande, Metro C: De Akkers =&gt; De Terp</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4534,10 +4642,14 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4569,12 +4681,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand, Metro C: De Terp =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4584,10 +4696,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4619,12 +4735,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Metro D: Rotterdam Centraal =&gt; De Akkers</t>
+          <t>Metro D: Rotterdam Centraal =&gt; De Akkers, Metro E: Den Haag Centraal =&gt; Slinge</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, E</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4634,10 +4750,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
+          <t>D, E</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>('D', 'E')</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4669,12 +4789,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Metro D: De Akkers =&gt; Rotterdam Centraal</t>
+          <t>Metro D: De Akkers =&gt; Rotterdam Centraal, Metro E: Slinge =&gt; Den Haag Centraal</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, E</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4684,10 +4804,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
+          <t>D, E</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>('D', 'E')</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4719,12 +4843,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande, Metro C: De Akkers =&gt; De Terp</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4734,10 +4858,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4769,12 +4897,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand, Metro C: De Terp =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4784,10 +4912,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4819,12 +4951,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Metro D: Rotterdam Centraal =&gt; De Akkers</t>
+          <t>Metro D: Rotterdam Centraal =&gt; De Akkers, Metro E: Den Haag Centraal =&gt; Slinge</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, E</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4834,10 +4966,14 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr"/>
+          <t>D, E</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>('D', 'E')</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4869,12 +5005,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Metro D: De Akkers =&gt; Rotterdam Centraal</t>
+          <t>Metro D: De Akkers =&gt; Rotterdam Centraal, Metro E: Slinge =&gt; Den Haag Centraal</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, E</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4884,10 +5020,14 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
+          <t>D, E</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>('D', 'E')</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4919,12 +5059,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande, Metro C: De Akkers =&gt; De Terp</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4934,12 +5074,12 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>A, D</t>
+          <t>A, B, C, D, E</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>('A', 'D')</t>
+          <t>('A', 'B', 'C', 'D', 'E')</t>
         </is>
       </c>
     </row>
@@ -4973,12 +5113,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand, Metro C: De Terp =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4988,12 +5128,12 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>A, D</t>
+          <t>A, B, C, D, E</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>('A', 'D')</t>
+          <t>('A', 'B', 'C', 'D', 'E')</t>
         </is>
       </c>
     </row>
@@ -5027,12 +5167,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Metro D: Rotterdam Centraal =&gt; De Akkers</t>
+          <t>Metro D: Rotterdam Centraal =&gt; De Akkers, Metro E: Den Haag Centraal =&gt; Slinge</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, E</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5042,12 +5182,12 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>A, D</t>
+          <t>A, B, C, D, E</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>('A', 'D')</t>
+          <t>('A', 'B', 'C', 'D', 'E')</t>
         </is>
       </c>
     </row>
@@ -5081,12 +5221,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Metro D: De Akkers =&gt; Rotterdam Centraal</t>
+          <t>Metro D: De Akkers =&gt; Rotterdam Centraal, Metro E: Slinge =&gt; Den Haag Centraal</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, E</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5096,12 +5236,12 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>A, D</t>
+          <t>A, B, C, D, E</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>('A', 'D')</t>
+          <t>('A', 'B', 'C', 'D', 'E')</t>
         </is>
       </c>
     </row>
@@ -5135,12 +5275,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5150,10 +5290,14 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5185,12 +5329,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5200,10 +5344,14 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5335,12 +5483,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande, Metro C: De Akkers =&gt; De Terp</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5350,12 +5498,12 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>A, C</t>
+          <t>A, B, C, A, B, C</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>('A', 'C')</t>
+          <t>('A', 'B', 'C', 'A', 'B', 'C')</t>
         </is>
       </c>
     </row>
@@ -5389,12 +5537,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5404,12 +5552,12 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>A, C</t>
+          <t>A, B, C, A, B, C</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>('A', 'C')</t>
+          <t>('A', 'B', 'C', 'A', 'B', 'C')</t>
         </is>
       </c>
     </row>
@@ -5458,12 +5606,12 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>A, C</t>
+          <t>A, B, C, A, B, C</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>('A', 'C')</t>
+          <t>('A', 'B', 'C', 'A', 'B', 'C')</t>
         </is>
       </c>
     </row>
@@ -5497,12 +5645,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5512,10 +5660,14 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5547,12 +5699,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5562,10 +5714,14 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5597,12 +5753,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5612,10 +5768,14 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5647,12 +5807,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5662,10 +5822,14 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5697,12 +5861,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5712,10 +5876,14 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5747,12 +5915,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5762,10 +5930,14 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5797,12 +5969,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5812,10 +5984,14 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5847,12 +6023,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5862,10 +6038,14 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr"/>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>('A', 'B')</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6412,12 +6592,12 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>A, C</t>
+          <t>A, B, A, B, C, C</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>('A', 'C')</t>
+          <t>('A', 'B', 'A', 'B', 'C', 'C')</t>
         </is>
       </c>
     </row>
@@ -6501,12 +6681,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand, Metro C: De Terp =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6516,10 +6696,14 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6551,12 +6735,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand, Metro C: De Terp =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6566,10 +6750,14 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6601,12 +6789,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand, Metro C: De Terp =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6616,10 +6804,14 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6651,12 +6843,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand, Metro C: De Terp =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6666,10 +6858,14 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6701,12 +6897,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Metro C: De Terp =&gt; De Akkers</t>
+          <t>Metro C: De Terp =&gt; De Akkers, Metro D: Rotterdam Centraal =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C, D</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6716,10 +6912,14 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr"/>
+          <t>C, D</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>('C', 'D')</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6751,12 +6951,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Metro A: Vlaardingen West =&gt; Binnenhof</t>
+          <t>Metro A: Vlaardingen West =&gt; Binnenhof, Metro B: Hoek van Holland Strand =&gt; Nesselande, Metro C: De Akkers =&gt; De Terp</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6766,10 +6966,14 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6801,12 +7005,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Metro A: Binnenhof =&gt; Vlaardingen West</t>
+          <t>Metro A: Binnenhof =&gt; Vlaardingen West, Metro B: Nesselande =&gt; Hoek van Holland Strand, Metro C: De Terp =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B, C</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6816,10 +7020,14 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr"/>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>('A', 'B', 'C')</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6901,12 +7109,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Metro C: De Terp =&gt; De Akkers</t>
+          <t>Metro C: De Terp =&gt; De Akkers, Metro D: Rotterdam Centraal =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C, D</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6916,10 +7124,14 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr"/>
+          <t>C, D</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>('C', 'D')</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6951,12 +7163,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Metro C: De Terp =&gt; De Akkers</t>
+          <t>Metro C: De Terp =&gt; De Akkers, Metro D: Rotterdam Centraal =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C, D</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6966,10 +7178,14 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr"/>
+          <t>C, D</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>('C', 'D')</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7209,12 +7425,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Metro D: De Akkers =&gt; Rotterdam Centraal</t>
+          <t>Metro D: De Akkers =&gt; Rotterdam Centraal, Metro E: Slinge =&gt; Den Haag Centraal</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, E</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7224,10 +7440,14 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr"/>
+          <t>D, E</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>('D', 'E')</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7259,12 +7479,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Metro D: De Akkers =&gt; Rotterdam Centraal</t>
+          <t>Metro D: De Akkers =&gt; Rotterdam Centraal, Metro E: Slinge =&gt; Den Haag Centraal</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D, E</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7274,10 +7494,14 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr"/>
+          <t>D, E</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>('D', 'E')</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7409,12 +7633,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Metro C: De Akkers =&gt; De Terp</t>
+          <t>Metro C: De Akkers =&gt; De Terp, Metro D: De Akkers =&gt; Rotterdam Centraal</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C, D</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7424,10 +7648,14 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr"/>
+          <t>C, D</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>('C', 'D')</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7459,12 +7687,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Metro C: De Terp =&gt; De Akkers</t>
+          <t>Metro C: De Terp =&gt; De Akkers, Metro D: Rotterdam Centraal =&gt; De Akkers</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C, D</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7474,10 +7702,14 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr"/>
+          <t>C, D</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>('C', 'D')</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7874,12 +8106,12 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A, A, B</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>('A', 'A', 'B')</t>
         </is>
       </c>
     </row>
@@ -7928,12 +8160,12 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A, A, B</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>('A', 'A', 'B')</t>
         </is>
       </c>
     </row>
